--- a/2021년/20210126.xlsx
+++ b/2021년/20210126.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swan3\Desktop\plan\2021년\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A1C4DE-0A84-499D-92F8-1C3DB7118658}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315F0FE1-6C96-4427-B466-6E48E30F26D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" tabRatio="570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="시간계획" sheetId="4" r:id="rId1"/>
+    <sheet name="F7_1772" sheetId="2" r:id="rId2"/>
+    <sheet name="WR" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t>일</t>
   </si>
@@ -286,11 +287,6 @@
     <t>1. 금요일 저녁일정 못지킬거면 대체일정
 2. 화, 목 술 자제
 3. 일요일 2시30분이전에 잘 것</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. STM32_RELAY_WIFI
- - 테스트프로그램 제작</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
@@ -299,6 +295,87 @@
 3. 날짜와 용량 두가지를 체크하는데, 용량체크하는 루틴 추가 후 날짜가 변경되어도 파일 제목이 변경안됨
 4. fatfs max로 폴더 생성 몇 개까지 가능한지 테스트할 것
 5. 펌웨어 업데이트 재 테스트 할 때, socketex.c의 342라인을 수정 320라인처럼 sub cmd로 파싱</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.26</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.25</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[컨트롤러 보드]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+ 1. 01/28일 PCB입고 예정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>[릴레이 보드]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+ 1. 스위치 재구매
+  - '아이디언트'에서 재고부족으로 인해 환불처리 되어 '1001파츠'에서 재구매
+</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. WR
+ - 테스트프로그램 제작
+ - 부품 입고
+  -&gt; ST3232(10EA), LM2675(20EA) 입고
+2. F7_1772</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 회원조회 및 다운로드 기능 구현
+ A. 서버용 F7 작업
+  A1. 
+</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -1051,7 +1128,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1091,6 +1168,30 @@
     <xf numFmtId="176" fontId="23" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="32" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1106,6 +1207,21 @@
     <xf numFmtId="0" fontId="22" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="32" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1124,44 +1240,14 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="32" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1691,12 +1777,335 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC52AB4-B0D9-46BE-ADAF-8AF5120AD80B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B2:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="37"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="37"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="37"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="37"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="37"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="37"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="37"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="37"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="37"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="C3:J12"/>
+  </mergeCells>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B2:J12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+    </row>
+    <row r="3" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="37"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="37"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="37"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="37"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="37"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="37"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="37"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="37"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="37"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J12"/>
+    <mergeCell ref="B3:B12"/>
+  </mergeCells>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1728,10 +2137,10 @@
       <c r="E2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
@@ -1758,15 +2167,15 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="18" t="s">
-        <v>69</v>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31" t="s">
+        <v>75</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>46</v>
@@ -1774,13 +2183,13 @@
       <c r="G3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="15"/>
+      <c r="J3" s="23"/>
       <c r="K3" t="s">
         <v>13</v>
       </c>
@@ -1793,18 +2202,18 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="19"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="6">
         <v>44200</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
       <c r="K4" t="s">
         <v>11</v>
       </c>
@@ -1814,18 +2223,18 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="19"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="8" t="s">
         <v>64</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
       <c r="K5" t="s">
         <v>12</v>
       </c>
@@ -1835,18 +2244,18 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="6">
         <v>44202</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
       <c r="K6" t="s">
         <v>10</v>
       </c>
@@ -1856,18 +2265,18 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="19"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="6">
         <v>44203</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
       <c r="K7" t="s">
         <v>8</v>
       </c>
@@ -1881,18 +2290,18 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="19"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="6">
         <v>44204</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
       <c r="K8" t="s">
         <v>4</v>
       </c>
@@ -1901,289 +2310,289 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="19"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="10">
         <v>44207</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="19"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="10">
         <v>44208</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="19"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="10">
         <v>44209</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="19"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="10">
         <v>44210</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="19"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="10">
         <v>44211</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="19"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="11">
         <v>44214</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" spans="2:15" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="19"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="11">
         <v>44215</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
     </row>
     <row r="16" spans="2:15" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="19"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="11">
         <v>44216</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="19"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="11">
         <v>44217</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="2:10" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="11">
         <v>44218</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="19"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="12">
         <v>44221</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="12">
         <v>44222</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="4">
         <v>44223</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="19"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="4">
         <v>44224</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="4">
         <v>44225</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2200,34 +2609,4 @@
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
 </file>